--- a/InputData/elec/WUbPPT/Water Use by Power Plant Type.xlsx
+++ b/InputData/elec/WUbPPT/Water Use by Power Plant Type.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipI - units progress\InputData\elec\WUbPPT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeff Rissman\CodeRepositories\eps-us\InputData\elec\WUbPPT\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C94D1094-03E9-4461-B4B0-6C3C805257C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13500"/>
+    <workbookView xWindow="29385" yWindow="660" windowWidth="27195" windowHeight="14805" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -20,17 +21,27 @@
     <sheet name="WUbPPT-withdrawals" sheetId="6" r:id="rId6"/>
     <sheet name="WUbPPT-consumption" sheetId="8" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="89">
   <si>
     <t>Reference,date=2018-28-11T14:16:43-08:00</t>
   </si>
@@ -221,9 +232,6 @@
     <t>hard coal</t>
   </si>
   <si>
-    <t>natural gas nonpeaker</t>
-  </si>
-  <si>
     <t>onshore wind</t>
   </si>
   <si>
@@ -290,17 +298,23 @@
     <t>municipal solid waste</t>
   </si>
   <si>
-    <t>Water withdrawals (liters/(MW*hour))</t>
-  </si>
-  <si>
-    <t>Water consumption (liters/(MW*hour))</t>
+    <t>natural gas steam turbine</t>
+  </si>
+  <si>
+    <t>natural gas combined cycle</t>
+  </si>
+  <si>
+    <t>Unit: liters/(MW*hour)</t>
+  </si>
+  <si>
+    <t>Water demand</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -320,6 +334,22 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -352,7 +382,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -374,6 +404,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -654,22 +686,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>56</v>
       </c>
@@ -677,127 +709,127 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" s="7">
         <v>2018</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" s="8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A13" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A14" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A16" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A17" t="s">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A18" t="s">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A19" t="s">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A20" t="s">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A21" t="s">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A22" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26">
         <f>10^12</f>
         <v>1000000000000</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>277777777.77777702</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1"/>
+    <hyperlink ref="B6" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -805,13 +837,13 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="18.3984375" customWidth="1"/>
-    <col min="4" max="4" width="27.3984375" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" customWidth="1"/>
+    <col min="4" max="4" width="27.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>38</v>
       </c>
@@ -891,7 +923,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -971,7 +1003,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1051,7 +1083,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1131,7 +1163,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -1211,7 +1243,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -1291,7 +1323,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -1371,7 +1403,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -1451,7 +1483,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -1531,7 +1563,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -1611,7 +1643,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -1691,7 +1723,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -1771,7 +1803,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -1851,7 +1883,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -1931,7 +1963,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -2011,7 +2043,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -2091,7 +2123,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>0</v>
       </c>
@@ -2171,7 +2203,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -2251,7 +2283,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>0</v>
       </c>
@@ -2331,7 +2363,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>0</v>
       </c>
@@ -2411,7 +2443,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>0</v>
       </c>
@@ -2491,7 +2523,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>0</v>
       </c>
@@ -2571,7 +2603,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>0</v>
       </c>
@@ -2651,7 +2683,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>0</v>
       </c>
@@ -2731,7 +2763,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>0</v>
       </c>
@@ -2817,7 +2849,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AB16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2825,15 +2857,15 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.1328125" customWidth="1"/>
-    <col min="3" max="3" width="12.73046875" customWidth="1"/>
-    <col min="4" max="4" width="15.59765625" customWidth="1"/>
-    <col min="5" max="5" width="29.265625" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" customWidth="1"/>
+    <col min="5" max="5" width="29.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>38</v>
       </c>
@@ -2919,7 +2951,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -3005,7 +3037,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -3091,7 +3123,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -3177,7 +3209,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -3263,7 +3295,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -3349,7 +3381,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -3435,7 +3467,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -3521,7 +3553,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -3607,7 +3639,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -3693,7 +3725,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -3779,7 +3811,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -3865,7 +3897,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -3951,7 +3983,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -4037,7 +4069,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -4123,7 +4155,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -4215,7 +4247,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AB17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4223,15 +4255,15 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="14.59765625" customWidth="1"/>
-    <col min="4" max="4" width="17.1328125" customWidth="1"/>
-    <col min="5" max="5" width="27.73046875" customWidth="1"/>
-    <col min="6" max="6" width="18.86328125" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" customWidth="1"/>
+    <col min="5" max="5" width="27.7109375" customWidth="1"/>
+    <col min="6" max="6" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>38</v>
       </c>
@@ -4317,7 +4349,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -4403,7 +4435,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -4489,7 +4521,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -4575,7 +4607,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -4661,7 +4693,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -4747,7 +4779,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -4833,7 +4865,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -4919,7 +4951,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -5005,7 +5037,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -5091,7 +5123,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -5177,7 +5209,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -5263,7 +5295,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -5349,7 +5381,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -5435,7 +5467,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -5521,7 +5553,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -5607,7 +5639,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>0</v>
       </c>
@@ -5700,24 +5732,22 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D17"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27" customWidth="1"/>
-    <col min="2" max="2" width="18.59765625" customWidth="1"/>
-    <col min="3" max="3" width="27.265625" customWidth="1"/>
-    <col min="4" max="4" width="27.3984375" customWidth="1"/>
-    <col min="5" max="5" width="29.265625" customWidth="1"/>
-    <col min="6" max="8" width="28.59765625" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" customWidth="1"/>
+    <col min="3" max="3" width="27.28515625" customWidth="1"/>
+    <col min="4" max="4" width="27.42578125" customWidth="1"/>
+    <col min="5" max="5" width="29.28515625" customWidth="1"/>
+    <col min="6" max="8" width="28.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>41</v>
       </c>
@@ -5743,7 +5773,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -5776,7 +5806,7 @@
         <v/>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -5809,7 +5839,7 @@
         <v>971.73432153190504</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -5842,7 +5872,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -5875,7 +5905,7 @@
         <v>1960.1218806510001</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -5908,7 +5938,7 @@
         <v>620.64013917559782</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -5941,7 +5971,7 @@
         <v>745.03641899418494</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -5974,7 +6004,7 @@
         <v>4930.3337614825323</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>27</v>
       </c>
@@ -6003,7 +6033,7 @@
         <v>16999.982182329317</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -6036,7 +6066,7 @@
         <v>2226.6884419345611</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -6069,7 +6099,7 @@
         <v>1684.774202794702</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -6102,7 +6132,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -6135,7 +6165,7 @@
         <v>1183.8566612430841</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -6168,7 +6198,7 @@
         <v>2103.5281074696754</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -6201,7 +6231,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -6234,7 +6264,7 @@
         <v>20.000187272534593</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -6273,28 +6303,29 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
-    <tabColor theme="8" tint="-0.249977111117893"/>
+    <tabColor theme="8" tint="-0.499984740745262"/>
   </sheetPr>
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.265625" customWidth="1"/>
-    <col min="2" max="2" width="18.265625" customWidth="1"/>
+    <col min="1" max="1" width="26.5703125" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>87</v>
+      </c>
       <c r="B1" s="10" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>62</v>
       </c>
@@ -6303,167 +6334,178 @@
         <v>54577.83755331373</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="B3" s="6">
+        <f>'2015 Consolidated Data'!G7</f>
+        <v>30331.387156235895</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B4" s="6">
         <f>'2015 Consolidated Data'!G6</f>
         <v>4159.9245358989992</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B5" s="6">
         <f>'2015 Consolidated Data'!G11</f>
         <v>63249.562164099065</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B6" s="6">
         <f>'2015 Consolidated Data'!G9</f>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>64</v>
       </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>65</v>
-      </c>
-      <c r="B7" s="6">
+      <c r="B8" s="6">
         <f>'2015 Consolidated Data'!G16</f>
         <v>20.000187272534593</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
-        <v>66</v>
-      </c>
-      <c r="B8" s="6">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B9" s="6">
         <f>'2015 Consolidated Data'!G14</f>
         <v>2103.5281074696754</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B10" s="6">
         <f>'2015 Consolidated Data'!G3</f>
         <v>13890.685457654999</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B11" s="6">
         <f>'2015 Consolidated Data'!G8</f>
         <v>4930.3337614825323</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
-        <v>67</v>
-      </c>
-      <c r="B11" s="6">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B12" s="6">
         <f>'2015 Consolidated Data'!G13</f>
         <v>23313.172724314474</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
-        <v>68</v>
-      </c>
-      <c r="B12" s="6">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>67</v>
+      </c>
+      <c r="B13" s="6">
         <f>'2015 Consolidated Data'!G7</f>
         <v>30331.387156235895</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A13" t="s">
-        <v>69</v>
-      </c>
-      <c r="B13" s="6">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>68</v>
+      </c>
+      <c r="B14" s="6">
         <f>'2015 Consolidated Data'!G5</f>
         <v>54577.83755331373</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A14" t="s">
-        <v>70</v>
-      </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>69</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>82</v>
+      </c>
+      <c r="B16" s="6">
+        <f>B12</f>
+        <v>23313.172724314474</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>83</v>
       </c>
-      <c r="B15" s="6">
-        <f>B11</f>
+      <c r="B17" s="6">
+        <f>B12</f>
         <v>23313.172724314474</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A16" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>84</v>
       </c>
-      <c r="B16" s="6">
-        <f>B11</f>
-        <v>23313.172724314474</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A17" t="s">
-        <v>85</v>
-      </c>
-      <c r="B17" s="6">
-        <f>B9</f>
+      <c r="B18" s="6">
+        <f>B10</f>
         <v>13890.685457654999</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
-    <tabColor theme="8" tint="-0.249977111117893"/>
+    <tabColor theme="8" tint="-0.499984740745262"/>
   </sheetPr>
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.265625" customWidth="1"/>
-    <col min="2" max="2" width="18.265625" customWidth="1"/>
+    <col min="1" max="1" width="26.5703125" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>87</v>
+      </c>
       <c r="B1" s="10" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>62</v>
       </c>
@@ -6472,136 +6514,145 @@
         <v>1960.1218806510001</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="B3" s="6">
+        <f>'2015 Consolidated Data'!H7</f>
+        <v>745.03641899418494</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B4" s="6">
         <f>'2015 Consolidated Data'!H6</f>
         <v>620.64013917559782</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B5" s="6">
         <f>'2015 Consolidated Data'!H11</f>
         <v>1684.774202794702</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B6" s="6">
         <f>'2015 Consolidated Data'!H9</f>
         <v>16999.982182329317</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>64</v>
       </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>65</v>
-      </c>
-      <c r="B7" s="6">
+      <c r="B8" s="6">
         <f>'2015 Consolidated Data'!H16</f>
         <v>20.000187272534593</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
-        <v>66</v>
-      </c>
-      <c r="B8" s="6">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B9" s="6">
         <f>'2015 Consolidated Data'!H14</f>
         <v>2103.5281074696754</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B10" s="6">
         <f>'2015 Consolidated Data'!H3</f>
         <v>971.73432153190504</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B11" s="6">
         <f>'2015 Consolidated Data'!H8</f>
         <v>4930.3337614825323</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
-        <v>67</v>
-      </c>
-      <c r="B11" s="6">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B12" s="6">
         <f>'2015 Consolidated Data'!H13</f>
         <v>1183.8566612430841</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
-        <v>68</v>
-      </c>
-      <c r="B12" s="6">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>67</v>
+      </c>
+      <c r="B13" s="6">
         <f>'2015 Consolidated Data'!H7</f>
         <v>745.03641899418494</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A13" t="s">
-        <v>69</v>
-      </c>
-      <c r="B13" s="6">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>68</v>
+      </c>
+      <c r="B14" s="6">
         <f>'2015 Consolidated Data'!H5</f>
         <v>1960.1218806510001</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A14" t="s">
-        <v>70</v>
-      </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>69</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>82</v>
+      </c>
+      <c r="B16" s="6">
+        <f>B12</f>
+        <v>1183.8566612430841</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>83</v>
       </c>
-      <c r="B15" s="6">
-        <f>B11</f>
+      <c r="B17" s="6">
+        <f>B12</f>
         <v>1183.8566612430841</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A16" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>84</v>
       </c>
-      <c r="B16" s="6">
-        <f>B11</f>
-        <v>1183.8566612430841</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A17" t="s">
-        <v>85</v>
-      </c>
-      <c r="B17" s="6">
-        <f>B9</f>
+      <c r="B18" s="6">
+        <f>B10</f>
         <v>971.73432153190504</v>
       </c>
     </row>

--- a/InputData/elec/WUbPPT/Water Use by Power Plant Type.xlsx
+++ b/InputData/elec/WUbPPT/Water Use by Power Plant Type.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeff Rissman\CodeRepositories\eps-us\InputData\elec\WUbPPT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\elec\WUbPPT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C94D1094-03E9-4461-B4B0-6C3C805257C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E90AF87-4226-47DF-9349-020BFDDF28F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29385" yWindow="660" windowWidth="27195" windowHeight="14805" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="94">
   <si>
     <t>Reference,date=2018-28-11T14:16:43-08:00</t>
   </si>
@@ -308,6 +308,21 @@
   </si>
   <si>
     <t>Water demand</t>
+  </si>
+  <si>
+    <t>hard coal w CCS</t>
+  </si>
+  <si>
+    <t>natural gas combined cycle w CCS</t>
+  </si>
+  <si>
+    <t>biomass w CCS</t>
+  </si>
+  <si>
+    <t>lignite w CCS</t>
+  </si>
+  <si>
+    <t>small modular reactor</t>
   </si>
 </sst>
 </file>
@@ -6307,9 +6322,11 @@
   <sheetPr>
     <tabColor theme="8" tint="-0.499984740745262"/>
   </sheetPr>
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6474,6 +6491,60 @@
       <c r="B18" s="6">
         <f>B10</f>
         <v>13890.685457654999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>89</v>
+      </c>
+      <c r="B19" s="6">
+        <f>B2</f>
+        <v>54577.83755331373</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>90</v>
+      </c>
+      <c r="B20" s="6">
+        <f>B4</f>
+        <v>4159.9245358989992</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>91</v>
+      </c>
+      <c r="B21" s="6">
+        <f>B10</f>
+        <v>13890.685457654999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>92</v>
+      </c>
+      <c r="B22" s="6">
+        <f>B14</f>
+        <v>54577.83755331373</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>93</v>
+      </c>
+      <c r="B23" s="6">
+        <f>B5</f>
+        <v>63249.562164099065</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" s="6">
+        <f>B4</f>
+        <v>4159.9245358989992</v>
       </c>
     </row>
   </sheetData>
@@ -6487,9 +6558,11 @@
   <sheetPr>
     <tabColor theme="8" tint="-0.499984740745262"/>
   </sheetPr>
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6656,6 +6729,60 @@
         <v>971.73432153190504</v>
       </c>
     </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>89</v>
+      </c>
+      <c r="B19" s="6">
+        <f>B2</f>
+        <v>1960.1218806510001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>90</v>
+      </c>
+      <c r="B20" s="6">
+        <f>B4</f>
+        <v>620.64013917559782</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>91</v>
+      </c>
+      <c r="B21" s="6">
+        <f>B10</f>
+        <v>971.73432153190504</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>92</v>
+      </c>
+      <c r="B22" s="6">
+        <f>B14</f>
+        <v>1960.1218806510001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>93</v>
+      </c>
+      <c r="B23" s="6">
+        <f>B5</f>
+        <v>1684.774202794702</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" s="6">
+        <f>B4</f>
+        <v>620.64013917559782</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/InputData/elec/WUbPPT/Water Use by Power Plant Type.xlsx
+++ b/InputData/elec/WUbPPT/Water Use by Power Plant Type.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\elec\WUbPPT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E90AF87-4226-47DF-9349-020BFDDF28F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BB1D2B3-0C62-456B-8DC4-1239F1AF5222}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6325,7 +6325,7 @@
   <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6543,8 +6543,8 @@
         <v>32</v>
       </c>
       <c r="B24" s="6">
-        <f>B4</f>
-        <v>4159.9245358989992</v>
+        <f>B13</f>
+        <v>30331.387156235895</v>
       </c>
     </row>
   </sheetData>
@@ -6561,7 +6561,7 @@
   <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6779,8 +6779,8 @@
         <v>32</v>
       </c>
       <c r="B24" s="6">
-        <f>B4</f>
-        <v>620.64013917559782</v>
+        <f>B13</f>
+        <v>745.03641899418494</v>
       </c>
     </row>
   </sheetData>

--- a/InputData/elec/WUbPPT/Water Use by Power Plant Type.xlsx
+++ b/InputData/elec/WUbPPT/Water Use by Power Plant Type.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\elec\WUbPPT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BB1D2B3-0C62-456B-8DC4-1239F1AF5222}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CABAB2E8-C7B5-485C-A73C-3C2E68CFD24C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="96">
   <si>
     <t>Reference,date=2018-28-11T14:16:43-08:00</t>
   </si>
@@ -323,13 +323,19 @@
   </si>
   <si>
     <t>small modular reactor</t>
+  </si>
+  <si>
+    <t>hydrogen combustion turbine</t>
+  </si>
+  <si>
+    <t>hydrogen combined cycle</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -369,6 +375,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -397,7 +410,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -421,6 +434,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -6322,10 +6338,10 @@
   <sheetPr>
     <tabColor theme="8" tint="-0.499984740745262"/>
   </sheetPr>
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6539,12 +6555,21 @@
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>32</v>
+      <c r="A24" s="13" t="s">
+        <v>94</v>
       </c>
       <c r="B24" s="6">
         <f>B13</f>
         <v>30331.387156235895</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="B25" s="6">
+        <f>B4</f>
+        <v>4159.9245358989992</v>
       </c>
     </row>
   </sheetData>
@@ -6558,10 +6583,10 @@
   <sheetPr>
     <tabColor theme="8" tint="-0.499984740745262"/>
   </sheetPr>
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6775,12 +6800,21 @@
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>32</v>
+      <c r="A24" s="13" t="s">
+        <v>94</v>
       </c>
       <c r="B24" s="6">
         <f>B13</f>
         <v>745.03641899418494</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="B25" s="6">
+        <f>B4</f>
+        <v>620.64013917559782</v>
       </c>
     </row>
   </sheetData>
